--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.20310720508642</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N2">
-        <v>2.20310720508642</v>
+        <v>1.556296</v>
       </c>
       <c r="O2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P2">
-        <v>0.9189648332695114</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q2">
-        <v>122.4026419956977</v>
+        <v>32.08286064505511</v>
       </c>
       <c r="R2">
-        <v>122.4026419956977</v>
+        <v>288.745745805496</v>
       </c>
       <c r="S2">
-        <v>0.02810845093163763</v>
+        <v>0.005110753721521575</v>
       </c>
       <c r="T2">
-        <v>0.02810845093163763</v>
+        <v>0.005110753721521574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.123689488153447</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>0.123689488153447</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P3">
-        <v>0.05159362630910416</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q3">
-        <v>6.872075994360692</v>
+        <v>138.1599387153779</v>
       </c>
       <c r="R3">
-        <v>6.872075994360692</v>
+        <v>1243.439448438401</v>
       </c>
       <c r="S3">
-        <v>0.001578098378732396</v>
+        <v>0.02200868023480447</v>
       </c>
       <c r="T3">
-        <v>0.001578098378732396</v>
+        <v>0.02200868023480446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0705825375280405</v>
+        <v>0.134921</v>
       </c>
       <c r="N4">
-        <v>0.0705825375280405</v>
+        <v>0.404763</v>
       </c>
       <c r="O4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P4">
-        <v>0.02944154042138428</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q4">
-        <v>3.921501891622084</v>
+        <v>8.344142067623666</v>
       </c>
       <c r="R4">
-        <v>3.921501891622084</v>
+        <v>75.097278608613</v>
       </c>
       <c r="S4">
-        <v>0.0009005307540899146</v>
+        <v>0.001329209873047439</v>
       </c>
       <c r="T4">
-        <v>0.0009005307540899146</v>
+        <v>0.001329209873047439</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.20310720508642</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N5">
-        <v>2.20310720508642</v>
+        <v>0.434273</v>
       </c>
       <c r="O5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P5">
-        <v>0.9189648332695114</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q5">
-        <v>2999.256077016967</v>
+        <v>8.952487278069222</v>
       </c>
       <c r="R5">
-        <v>2999.256077016967</v>
+        <v>80.57238550262301</v>
       </c>
       <c r="S5">
-        <v>0.6887469167145149</v>
+        <v>0.00142611839322747</v>
       </c>
       <c r="T5">
-        <v>0.6887469167145149</v>
+        <v>0.00142611839322747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1361.3754564882</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>1361.3754564882</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.7494812551902312</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.123689488153447</v>
+        <v>0.1682013333333333</v>
       </c>
       <c r="N6">
-        <v>0.123689488153447</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="O6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882402</v>
       </c>
       <c r="P6">
-        <v>0.05159362630910416</v>
+        <v>0.05255258679882403</v>
       </c>
       <c r="Q6">
-        <v>168.3878333976907</v>
+        <v>10.40235264560044</v>
       </c>
       <c r="R6">
-        <v>168.3878333976907</v>
+        <v>93.62117381040402</v>
       </c>
       <c r="S6">
-        <v>0.03866845580596312</v>
+        <v>0.001657079868414924</v>
       </c>
       <c r="T6">
-        <v>0.03866845580596312</v>
+        <v>0.001657079868414924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.0705825375280405</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N7">
-        <v>0.0705825375280405</v>
+        <v>1.556296</v>
       </c>
       <c r="O7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P7">
-        <v>0.02944154042138428</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q7">
-        <v>96.08933424733164</v>
+        <v>706.2362665228079</v>
       </c>
       <c r="R7">
-        <v>96.08933424733164</v>
+        <v>6356.126398705272</v>
       </c>
       <c r="S7">
-        <v>0.02206588266975302</v>
+        <v>0.1125024251215346</v>
       </c>
       <c r="T7">
-        <v>0.02206588266975302</v>
+        <v>0.1125024251215347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.20310720508642</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>2.20310720508642</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P8">
-        <v>0.9189648332695114</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q8">
-        <v>531.2281444337464</v>
+        <v>3041.298604287873</v>
       </c>
       <c r="R8">
-        <v>531.2281444337464</v>
+        <v>27371.68743859086</v>
       </c>
       <c r="S8">
-        <v>0.121990832778313</v>
+        <v>0.4844745090559215</v>
       </c>
       <c r="T8">
-        <v>0.121990832778313</v>
+        <v>0.4844745090559215</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.123689488153447</v>
+        <v>0.134921</v>
       </c>
       <c r="N9">
-        <v>0.123689488153447</v>
+        <v>0.404763</v>
       </c>
       <c r="O9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P9">
-        <v>0.05159362630910416</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q9">
-        <v>29.82484789029504</v>
+        <v>183.6786253685489</v>
       </c>
       <c r="R9">
-        <v>29.82484789029504</v>
+        <v>1653.107628316941</v>
       </c>
       <c r="S9">
-        <v>0.006848955707160147</v>
+        <v>0.02925974178399721</v>
       </c>
       <c r="T9">
-        <v>0.006848955707160147</v>
+        <v>0.02925974178399722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>241.126779126896</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>241.126779126896</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.1327480969476183</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0705825375280405</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N10">
-        <v>0.0705825375280405</v>
+        <v>0.434273</v>
       </c>
       <c r="O10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P10">
-        <v>0.02944154042138428</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q10">
-        <v>17.01933993673967</v>
+        <v>197.070057477279</v>
       </c>
       <c r="R10">
-        <v>17.01933993673967</v>
+        <v>1773.630517295511</v>
       </c>
       <c r="S10">
-        <v>0.003908308462145142</v>
+        <v>0.03139297772711889</v>
       </c>
       <c r="T10">
-        <v>0.003908308462145142</v>
+        <v>0.0313929777271189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>133.49876153682</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>133.49876153682</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.07349538945050349</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.07349538945050349</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.20310720508642</v>
+        <v>0.1682013333333333</v>
       </c>
       <c r="N11">
-        <v>2.20310720508642</v>
+        <v>0.5046040000000001</v>
       </c>
       <c r="O11">
-        <v>0.9189648332695114</v>
+        <v>0.05255258679882402</v>
       </c>
       <c r="P11">
-        <v>0.9189648332695114</v>
+        <v>0.05255258679882403</v>
       </c>
       <c r="Q11">
-        <v>294.112083411882</v>
+        <v>228.985774577892</v>
       </c>
       <c r="R11">
-        <v>294.112083411882</v>
+        <v>2060.871971201028</v>
       </c>
       <c r="S11">
-        <v>0.06753967831245974</v>
+        <v>0.03647710572155095</v>
       </c>
       <c r="T11">
-        <v>0.06753967831245974</v>
+        <v>0.03647710572155097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.123689488153447</v>
+        <v>0.5187653333333333</v>
       </c>
       <c r="N12">
-        <v>0.123689488153447</v>
+        <v>1.556296</v>
       </c>
       <c r="O12">
-        <v>0.05159362630910416</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="P12">
-        <v>0.05159362630910416</v>
+        <v>0.1620823073631256</v>
       </c>
       <c r="Q12">
-        <v>16.51239348360835</v>
+        <v>130.2137372867147</v>
       </c>
       <c r="R12">
-        <v>16.51239348360835</v>
+        <v>1171.923635580432</v>
       </c>
       <c r="S12">
-        <v>0.003791893658751353</v>
+        <v>0.02074286173523871</v>
       </c>
       <c r="T12">
-        <v>0.003791893658751353</v>
+        <v>0.02074286173523871</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>133.49876153682</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>133.49876153682</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.07349538945050349</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.07349538945050349</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0705825375280405</v>
+        <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>0.0705825375280405</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.02944154042138428</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="P13">
-        <v>0.02944154042138428</v>
+        <v>0.6979826986091381</v>
       </c>
       <c r="Q13">
-        <v>9.422681346119528</v>
+        <v>560.7455694947714</v>
       </c>
       <c r="R13">
-        <v>9.422681346119528</v>
+        <v>5046.710125452943</v>
       </c>
       <c r="S13">
-        <v>0.002163817479292378</v>
+        <v>0.08932596559352775</v>
       </c>
       <c r="T13">
-        <v>0.002163817479292378</v>
+        <v>0.08932596559352773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.8635304977225</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>24.8635304977225</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.01368817834718704</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.01368817834718704</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.20310720508642</v>
+        <v>0.134921</v>
       </c>
       <c r="N14">
-        <v>2.20310720508642</v>
+        <v>0.404763</v>
       </c>
       <c r="O14">
-        <v>0.9189648332695114</v>
+        <v>0.04215452650088466</v>
       </c>
       <c r="P14">
-        <v>0.9189648332695114</v>
+        <v>0.04215452650088467</v>
       </c>
       <c r="Q14">
-        <v>54.77702318341839</v>
+        <v>33.866117335894</v>
       </c>
       <c r="R14">
-        <v>54.77702318341839</v>
+        <v>304.795056023046</v>
       </c>
       <c r="S14">
-        <v>0.01257895453258608</v>
+        <v>0.00539482395671545</v>
       </c>
       <c r="T14">
-        <v>0.01257895453258608</v>
+        <v>0.005394823956715449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.8635304977225</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>24.8635304977225</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.01368817834718704</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.01368817834718704</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.123689488153447</v>
+        <v>0.1447576666666667</v>
       </c>
       <c r="N15">
-        <v>0.123689488153447</v>
+        <v>0.434273</v>
       </c>
       <c r="O15">
-        <v>0.05159362630910416</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="P15">
-        <v>0.05159362630910416</v>
+        <v>0.04522788072802773</v>
       </c>
       <c r="Q15">
-        <v>3.075357360950916</v>
+        <v>36.33518966360734</v>
       </c>
       <c r="R15">
-        <v>3.075357360950916</v>
+        <v>327.016706972466</v>
       </c>
       <c r="S15">
-        <v>0.0007062227584971392</v>
+        <v>0.005788143639993499</v>
       </c>
       <c r="T15">
-        <v>0.0007062227584971392</v>
+        <v>0.005788143639993498</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>251.007014</v>
+      </c>
+      <c r="H16">
+        <v>753.021042</v>
+      </c>
+      <c r="I16">
+        <v>0.127977334927537</v>
+      </c>
+      <c r="J16">
+        <v>0.1279773349275369</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P16">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q16">
+        <v>42.21971443081867</v>
+      </c>
+      <c r="R16">
+        <v>379.977429877368</v>
+      </c>
+      <c r="S16">
+        <v>0.006725540002061559</v>
+      </c>
+      <c r="T16">
+        <v>0.00672554000206156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>24.8635304977225</v>
-      </c>
-      <c r="H16">
-        <v>24.8635304977225</v>
-      </c>
-      <c r="I16">
-        <v>0.01368817834718704</v>
-      </c>
-      <c r="J16">
-        <v>0.01368817834718704</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.0705825375280405</v>
-      </c>
-      <c r="N16">
-        <v>0.0705825375280405</v>
-      </c>
-      <c r="O16">
-        <v>0.02944154042138428</v>
-      </c>
-      <c r="P16">
-        <v>0.02944154042138428</v>
-      </c>
-      <c r="Q16">
-        <v>1.754931074435078</v>
-      </c>
-      <c r="R16">
-        <v>1.754931074435078</v>
-      </c>
-      <c r="S16">
-        <v>0.0004030010561038243</v>
-      </c>
-      <c r="T16">
-        <v>0.0004030010561038243</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H17">
+        <v>780.094591</v>
+      </c>
+      <c r="I17">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J17">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.556296</v>
+      </c>
+      <c r="O17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P17">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q17">
+        <v>134.8953435105485</v>
+      </c>
+      <c r="R17">
+        <v>1214.058091594936</v>
+      </c>
+      <c r="S17">
+        <v>0.02148863489729759</v>
+      </c>
+      <c r="T17">
+        <v>0.02148863489729759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H18">
+        <v>780.094591</v>
+      </c>
+      <c r="I18">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J18">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P18">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q18">
+        <v>580.9061915830047</v>
+      </c>
+      <c r="R18">
+        <v>5228.155724247042</v>
+      </c>
+      <c r="S18">
+        <v>0.09253752379918635</v>
+      </c>
+      <c r="T18">
+        <v>0.09253752379918635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H19">
+        <v>780.094591</v>
+      </c>
+      <c r="I19">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J19">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.134921</v>
+      </c>
+      <c r="N19">
+        <v>0.404763</v>
+      </c>
+      <c r="O19">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P19">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q19">
+        <v>35.08371410410367</v>
+      </c>
+      <c r="R19">
+        <v>315.753426936933</v>
+      </c>
+      <c r="S19">
+        <v>0.005588785376904435</v>
+      </c>
+      <c r="T19">
+        <v>0.005588785376904436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H20">
+        <v>780.094591</v>
+      </c>
+      <c r="I20">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J20">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.434273</v>
+      </c>
+      <c r="O20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P20">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q20">
+        <v>37.64155759081589</v>
+      </c>
+      <c r="R20">
+        <v>338.774018317343</v>
+      </c>
+      <c r="S20">
+        <v>0.005996246178589496</v>
+      </c>
+      <c r="T20">
+        <v>0.005996246178589496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>260.0315303333334</v>
+      </c>
+      <c r="H21">
+        <v>780.094591</v>
+      </c>
+      <c r="I21">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="J21">
+        <v>0.1325785352324417</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P21">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q21">
+        <v>43.73765011077379</v>
+      </c>
+      <c r="R21">
+        <v>393.638850996964</v>
+      </c>
+      <c r="S21">
+        <v>0.006967344980463841</v>
+      </c>
+      <c r="T21">
+        <v>0.006967344980463842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H22">
+        <v>81.231988</v>
+      </c>
+      <c r="I22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J22">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.5187653333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.556296</v>
+      </c>
+      <c r="O22">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="P22">
+        <v>0.1620823073631256</v>
+      </c>
+      <c r="Q22">
+        <v>14.04677977738311</v>
+      </c>
+      <c r="R22">
+        <v>126.421017996448</v>
+      </c>
+      <c r="S22">
+        <v>0.002237631887533058</v>
+      </c>
+      <c r="T22">
+        <v>0.002237631887533058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H23">
+        <v>81.231988</v>
+      </c>
+      <c r="I23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J23">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.233983666666667</v>
+      </c>
+      <c r="N23">
+        <v>6.701951000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="P23">
+        <v>0.6979826986091381</v>
+      </c>
+      <c r="Q23">
+        <v>60.49031146762091</v>
+      </c>
+      <c r="R23">
+        <v>544.4128032085881</v>
+      </c>
+      <c r="S23">
+        <v>0.009636019925697984</v>
+      </c>
+      <c r="T23">
+        <v>0.009636019925697984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H24">
+        <v>81.231988</v>
+      </c>
+      <c r="I24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J24">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.134921</v>
+      </c>
+      <c r="N24">
+        <v>0.404763</v>
+      </c>
+      <c r="O24">
+        <v>0.04215452650088466</v>
+      </c>
+      <c r="P24">
+        <v>0.04215452650088467</v>
+      </c>
+      <c r="Q24">
+        <v>3.653300350982667</v>
+      </c>
+      <c r="R24">
+        <v>32.879703158844</v>
+      </c>
+      <c r="S24">
+        <v>0.0005819655102201273</v>
+      </c>
+      <c r="T24">
+        <v>0.0005819655102201274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H25">
+        <v>81.231988</v>
+      </c>
+      <c r="I25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J25">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1447576666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.434273</v>
+      </c>
+      <c r="O25">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="P25">
+        <v>0.04522788072802773</v>
+      </c>
+      <c r="Q25">
+        <v>3.919651013858223</v>
+      </c>
+      <c r="R25">
+        <v>35.27685912472401</v>
+      </c>
+      <c r="S25">
+        <v>0.0006243947890983745</v>
+      </c>
+      <c r="T25">
+        <v>0.0006243947890983745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>27.07732933333333</v>
+      </c>
+      <c r="H26">
+        <v>81.231988</v>
+      </c>
+      <c r="I26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="J26">
+        <v>0.01380552833888228</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1682013333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.5046040000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.05255258679882402</v>
+      </c>
+      <c r="P26">
+        <v>0.05255258679882403</v>
+      </c>
+      <c r="Q26">
+        <v>4.554442896972445</v>
+      </c>
+      <c r="R26">
+        <v>40.989986072752</v>
+      </c>
+      <c r="S26">
+        <v>0.0007255162263327357</v>
+      </c>
+      <c r="T26">
+        <v>0.0007255162263327359</v>
       </c>
     </row>
   </sheetData>
